--- a/biology/Botanique/Nandina_domestica/Nandina_domestica.xlsx
+++ b/biology/Botanique/Nandina_domestica/Nandina_domestica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambou sacré, Bambou céleste, Bambou merveilleux
 Le Bambou sacré (Nandina domestica) est une espèce de plantes arbustives de la famille des Berberidaceae. C'est la seule espèce actuellement acceptée dans le genre Nandina.
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nandina domestica est une espèce d'arbustes à croissance lente mesurant jusqu'à 2 m de hauteur. A port érigé, elle est composée de nombreuses tiges non ramifiées émanant directement des racines, structure qui rappelle celle du bambou. L'écorce de son tronc prend rapidement un aspect âgé.
 C'est une espèce généralement dioïque mais des plants hermaphrodites existent.
@@ -555,7 +569,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est naturalisée dans certaines parties de l'Est de l'Amérique du Sud. Dans le Sud-Est des États-Unis, elle est considérée par beaucoup comme une espèce invasive.
 Elle est rustique jusqu'à −15 °C  (Zone USDA 7). Elle apprécie un sol neutre à légèrement acide, une exposition lumineuse et supporte mal les emplacements venteux.
@@ -589,12 +605,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bambou sacré est largement cultivé dans les jardins comme plante ornementale ou en bonsaï ; plus de 60 cultivars ont été nommés au Japon, où l'espèce est particulièrement populaire.
 Le bois aromatique et à grain fin de cet arbuste servait à la fabrication des baguettes de table, en Chine et à la confection d'ikebana au Japon.
-Aucune partie de la plante n'est comestible[1] : les baies sont toxiques car elles contiennent un alcaloïde, la nandinine, et toutes les parties de la plante contiennent des hétérosides cyanogénétiques toxiques[1]. Les oiseaux ne sont pas affectés, sauf en cas d'ingestion massive[2], et dispersent les graines par l'intermédiaire de leurs déjections.
-Dans certains pays asiatiques, des vertus médicinales sont attribuées au nandina : en décoction les racines et les tiges seraient des sédatifs léger et seraient capables de faire tomber la fièvre ; d'apaiser la toux en cas de grippe, bronchite, coqueluche ; de tonifier l'estomac ; de diminuer la diarrhée après une indigestion ou une gastro-entérite ; de fortifier les muscles endoloris après une blessure[3]. Toutefois des intoxications ont été rapportées à la suite d'une consommation trop importante[1].
+Aucune partie de la plante n'est comestible : les baies sont toxiques car elles contiennent un alcaloïde, la nandinine, et toutes les parties de la plante contiennent des hétérosides cyanogénétiques toxiques. Les oiseaux ne sont pas affectés, sauf en cas d'ingestion massive, et dispersent les graines par l'intermédiaire de leurs déjections.
+Dans certains pays asiatiques, des vertus médicinales sont attribuées au nandina : en décoction les racines et les tiges seraient des sédatifs léger et seraient capables de faire tomber la fièvre ; d'apaiser la toux en cas de grippe, bronchite, coqueluche ; de tonifier l'estomac ; de diminuer la diarrhée après une indigestion ou une gastro-entérite ; de fortifier les muscles endoloris après une blessure. Toutefois des intoxications ont été rapportées à la suite d'une consommation trop importante.
 Le Bambou sacré est le symbole de la purification chez les taoïstes qui le considèrent comme une plante sacrée et le plantent autour de leur temple.
 </t>
         </is>
